--- a/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
+++ b/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B9644-D623-413C-A439-E0A8155A2DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B416E-F0D6-4CAC-8B36-9B4D88B80933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E16BA6E7-EE40-41C3-973E-82775EBE51BF}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>https://www.health.gov.au/ministers/the-hon-mark-butler-mp/media/minister-for-health-and-aged-care-press-conference-30-march-2023</t>
   </si>
   <si>
-    <t>https://www.abc.net.au/news/2023-04-11/covid-flu-vaccinations-encouraged-as-transmission-increases/102207870</t>
-  </si>
-  <si>
     <t>https://www.abc.net.au/news/2022-08-01/victoria-covid-surge-peak-hospitalisations-cases-deaths/101289134</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>https://www.abc.net.au/news/2022-06-09/northern-territory-covid-natasha-fyles/101137616</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AOISAo2T3Rw</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45027</v>
+        <v>45071</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -567,7 +567,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -578,7 +578,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -589,7 +589,7 @@
         <v>44771</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -600,7 +600,7 @@
         <v>45016</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -611,7 +611,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -622,7 +622,7 @@
         <v>44974</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
+++ b/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B416E-F0D6-4CAC-8B36-9B4D88B80933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F4381-C6AA-4DC5-B4E6-BCABE7032793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E16BA6E7-EE40-41C3-973E-82775EBE51BF}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>https://www.health.gov.au/ministers/the-hon-mark-butler-mp/media/minister-for-health-and-aged-care-press-conference-30-march-2023</t>
   </si>
   <si>
-    <t>https://www.abc.net.au/news/2022-08-01/victoria-covid-surge-peak-hospitalisations-cases-deaths/101289134</t>
-  </si>
-  <si>
     <t>https://www.abc.net.au/news/2023-04-04/qld-four-million-covid-19-coronavirus-chief-health-officer-2022/102180074</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AOISAo2T3Rw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mvrt6kVMf1M</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -556,7 +556,7 @@
         <v>45071</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44774</v>
+        <v>45087</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -578,7 +578,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -589,7 +589,7 @@
         <v>44771</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -600,7 +600,7 @@
         <v>45016</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -611,7 +611,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -622,7 +622,7 @@
         <v>44974</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
+++ b/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F4381-C6AA-4DC5-B4E6-BCABE7032793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49B9FD-5A9B-47DA-8237-250E094D061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E16BA6E7-EE40-41C3-973E-82775EBE51BF}"/>
   </bookViews>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>

--- a/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
+++ b/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49B9FD-5A9B-47DA-8237-250E094D061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3739F-7AEC-4A19-971F-BA0F5A0D2314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E16BA6E7-EE40-41C3-973E-82775EBE51BF}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>https://www.health.gov.au/ministers/the-hon-mark-butler-mp/media/minister-for-health-and-aged-care-press-conference-30-march-2023</t>
   </si>
   <si>
-    <t>https://www.abc.net.au/news/2023-04-04/qld-four-million-covid-19-coronavirus-chief-health-officer-2022/102180074</t>
-  </si>
-  <si>
     <t>https://www.news.com.au/national/western-australia/frustrated-wa-chief-health-officer-makes-two-big-calls-on-covid19/news-story/9f01a749a3562d3a2174896ec7dd48fa</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mvrt6kVMf1M</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2023-07-15/influenza-a-b-c-d-explained-flu-season/102599454</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
         <v>45071</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -567,7 +567,7 @@
         <v>45086</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -575,10 +575,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45020</v>
+        <v>45122</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -589,7 +589,7 @@
         <v>44771</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -600,7 +600,7 @@
         <v>45016</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -611,7 +611,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -622,7 +622,7 @@
         <v>44974</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
+++ b/Days-since-Health-Leadership-faced-the-public-on-COVID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3739F-7AEC-4A19-971F-BA0F5A0D2314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB2700-D5E5-41F2-A287-BD7A2C39AA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E16BA6E7-EE40-41C3-973E-82775EBE51BF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E16BA6E7-EE40-41C3-973E-82775EBE51BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>https://www.abc.net.au/news/2022-06-09/northern-territory-covid-natasha-fyles/101137616</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AOISAo2T3Rw</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=mvrt6kVMf1M</t>
   </si>
   <si>
     <t>https://www.abc.net.au/news/2023-07-15/influenza-a-b-c-d-explained-flu-season/102599454</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2023-09-25/nsw-kerry-chant-to-front-federal-covid-inquiry/102897698</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45071</v>
+        <v>45194</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -567,7 +567,7 @@
         <v>45086</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -578,7 +578,7 @@
         <v>45122</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
